--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Punkte gesamt</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Allg. Logik und TMR0 implementiert, RB0 und Rest noch nicht</t>
+  </si>
+  <si>
+    <t>in Arbeit - die Umsetzung der 18ms sind noch unklar(im Simulator abhängig von Quarzfrequenz?) + ist mit Devise Reset ein Neustart gemeint order ein Stop nach Reset? Und wtf soll ich unter dem Postscaler verstehen?</t>
   </si>
 </sst>
 </file>
@@ -498,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +717,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -726,7 +729,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -738,7 +741,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -748,7 +751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -760,7 +763,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -768,11 +771,14 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -784,7 +790,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -796,7 +802,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -808,7 +814,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -820,7 +826,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -832,7 +838,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -844,7 +850,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -853,7 +859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -865,7 +871,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>31</v>
       </c>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -908,7 +914,7 @@
       </c>
       <c r="D34" s="3">
         <f>SUM(D2:D33)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="3">
         <f>SUM(E2:E33)</f>
@@ -921,7 +927,7 @@
       </c>
       <c r="D35" s="4">
         <f>D34/60</f>
-        <v>0.73333333333333328</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
   </sheetData>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Punkte gesamt</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>in Arbeit - die Umsetzung der 18ms sind noch unklar(im Simulator abhängig von Quarzfrequenz?) + ist mit Devise Reset ein Neustart gemeint order ein Stop nach Reset? Und wtf soll ich unter dem Postscaler verstehen?</t>
+  </si>
+  <si>
+    <t>TODO: Einmal organisiert durchgehen</t>
   </si>
 </sst>
 </file>
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +605,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -614,6 +620,9 @@
         <v>0</v>
       </c>
       <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -635,9 +644,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3"/>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -914,7 +926,7 @@
       </c>
       <c r="D34" s="3">
         <f>SUM(D2:D33)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="3">
         <f>SUM(E2:E33)</f>
@@ -927,7 +939,7 @@
       </c>
       <c r="D35" s="4">
         <f>D34/60</f>
-        <v>0.76666666666666672</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Punkte gesamt</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>in Arbeit - die Umsetzung der 18ms sind noch unklar(im Simulator abhängig von Quarzfrequenz?) + ist mit Devise Reset ein Neustart gemeint order ein Stop nach Reset? Und wtf soll ich unter dem Postscaler verstehen?</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
   <si>
     <t>TODO: Einmal organisiert durchgehen</t>
@@ -504,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +609,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,7 +624,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,7 +651,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,6 +692,9 @@
         <v>0</v>
       </c>
       <c r="E13" s="3"/>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -752,6 +758,9 @@
         <v>0</v>
       </c>
       <c r="E18" s="3"/>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -144,13 +144,13 @@
     <t>Allg. Logik und TMR0 implementiert, RB0 und Rest noch nicht</t>
   </si>
   <si>
-    <t>in Arbeit - die Umsetzung der 18ms sind noch unklar(im Simulator abhängig von Quarzfrequenz?) + ist mit Devise Reset ein Neustart gemeint order ein Stop nach Reset? Und wtf soll ich unter dem Postscaler verstehen?</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
     <t>TODO: Einmal organisiert durchgehen</t>
+  </si>
+  <si>
+    <t>Berechnung der gewünschten Time-Out-Periode macht immer noch keinen Sinn. Bei 200ns Zykluszeit und 18 ms gewünschtem Timeout komme ich auf 90 000 Zyklen. Lehmann fordert in SimTest04 aber aus irgendeinem Grund nur 17 949. Nochmal nachfragen</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -792,11 +792,11 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
       </c>
       <c r="D34" s="3">
         <f>SUM(D2:D33)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="3">
         <f>SUM(E2:E33)</f>
@@ -948,7 +948,7 @@
       </c>
       <c r="D35" s="4">
         <f>D34/60</f>
-        <v>0.75</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
   </sheetData>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Punkte gesamt</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>externer Takt? Muss das im Simulator erzeugt werden oder ist Nutzereingabe ausreichend?</t>
-  </si>
-  <si>
-    <t>Allg. Logik und TMR0 implementiert, RB0 und Rest noch nicht</t>
   </si>
   <si>
     <t>TODO</t>
@@ -508,7 +505,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +606,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,7 +621,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,7 +648,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -693,7 +690,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -716,12 +713,9 @@
         <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -759,7 +753,7 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -796,7 +790,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,7 +929,7 @@
       </c>
       <c r="D34" s="3">
         <f>SUM(D2:D33)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34" s="3">
         <f>SUM(E2:E33)</f>
@@ -948,7 +942,7 @@
       </c>
       <c r="D35" s="4">
         <f>D34/60</f>
-        <v>0.76666666666666672</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Punkte gesamt</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Berechnung der gewünschten Time-Out-Periode macht immer noch keinen Sinn. Bei 200ns Zykluszeit und 18 ms gewünschtem Timeout komme ich auf 90 000 Zyklen. Lehmann fordert in SimTest04 aber aus irgendeinem Grund nur 17 949. Nochmal nachfragen</t>
+  </si>
+  <si>
+    <t>TODO: Bug bei Read</t>
   </si>
 </sst>
 </file>
@@ -504,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,9 +777,12 @@
         <v>5</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E20" s="3"/>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -929,7 +935,7 @@
       </c>
       <c r="D34" s="3">
         <f>SUM(D2:D33)</f>
-        <v>48</v>
+        <v>50.5</v>
       </c>
       <c r="E34" s="3">
         <f>SUM(E2:E33)</f>
@@ -942,7 +948,7 @@
       </c>
       <c r="D35" s="4">
         <f>D34/60</f>
-        <v>0.8</v>
+        <v>0.84166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Punkte gesamt</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Berechnung der gewünschten Time-Out-Periode macht immer noch keinen Sinn. Bei 200ns Zykluszeit und 18 ms gewünschtem Timeout komme ich auf 90 000 Zyklen. Lehmann fordert in SimTest04 aber aus irgendeinem Grund nur 17 949. Nochmal nachfragen</t>
-  </si>
-  <si>
-    <t>TODO: Bug bei Read</t>
   </si>
 </sst>
 </file>
@@ -508,7 +505,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,12 +774,9 @@
         <v>5</v>
       </c>
       <c r="D20" s="2">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -935,7 +929,7 @@
       </c>
       <c r="D34" s="3">
         <f>SUM(D2:D33)</f>
-        <v>50.5</v>
+        <v>53</v>
       </c>
       <c r="E34" s="3">
         <f>SUM(E2:E33)</f>
@@ -948,7 +942,7 @@
       </c>
       <c r="D35" s="4">
         <f>D34/60</f>
-        <v>0.84166666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
@@ -929,7 +929,7 @@
       </c>
       <c r="D34" s="3">
         <f>SUM(D2:D33)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" s="3">
         <f>SUM(E2:E33)</f>
@@ -942,7 +942,7 @@
       </c>
       <c r="D35" s="4">
         <f>D34/60</f>
-        <v>0.8833333333333333</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Punkte gesamt</t>
   </si>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,12 +686,9 @@
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -825,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -929,7 +926,7 @@
       </c>
       <c r="D34" s="3">
         <f>SUM(D2:D33)</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3">
         <f>SUM(E2:E33)</f>
@@ -942,7 +939,7 @@
       </c>
       <c r="D35" s="4">
         <f>D34/60</f>
-        <v>0.91666666666666663</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Punkte gesamt</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Berechnung der gewünschten Time-Out-Periode macht immer noch keinen Sinn. Bei 200ns Zykluszeit und 18 ms gewünschtem Timeout komme ich auf 90 000 Zyklen. Lehmann fordert in SimTest04 aber aus irgendeinem Grund nur 17 949. Nochmal nachfragen</t>
+  </si>
+  <si>
+    <t>Hält sich noch nicht ganz an die Beschreibung (WakeUps sind manuell gesetzt, die RESETs bewirken irgendwie so gut wie nichts…)</t>
   </si>
 </sst>
 </file>
@@ -504,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,9 +801,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3"/>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -926,7 +932,7 @@
       </c>
       <c r="D34" s="3">
         <f>SUM(D2:D33)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E34" s="3">
         <f>SUM(E2:E33)</f>
@@ -939,7 +945,7 @@
       </c>
       <c r="D35" s="4">
         <f>D34/60</f>
-        <v>0.8666666666666667</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Checkliste Aufgabenstellung.xlsx
+++ b/Checkliste Aufgabenstellung.xlsx
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="D34" s="3">
         <f>SUM(D2:D33)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E34" s="3">
         <f>SUM(E2:E33)</f>
@@ -945,7 +945,7 @@
       </c>
       <c r="D35" s="4">
         <f>D34/60</f>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
